--- a/zong.xlsx
+++ b/zong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,1850 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>คณะการบริการและการท่องเที่ยว มหาวิทยาลัยสงขลานครินทร์ วิทยาเขตภูเก็ต</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>คณบดี คณะการบริการและการท่องเที่ยว</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>มหาวิทยาลัยสงขลานครินทร์ วิทยาเขตภูเก็ต</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ชมรมภูมิปัญญาไทยแพทย์แผนไทยนวัตกรรมใหม่ แห่งประเทศไทย</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ประธานชมรมภูมิปัญญาไทยแพทย์แผนไทยนวัตกรรมใหม่ แห่งประเทศไทย   </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ตม.ทอ.ภูเก็ต  </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ผกก.ด่าน ตม.ทอ.ภูเก็ต</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ตัวอย่างชื่อ</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>บรรทัดที่ 1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>บรรทัดที่ 2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>บรรทัดที่ 3</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ที่ว่าการอำเภอถลาง</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>นายอำเภอถลาง ที่ว่าการอำเภอถลาง</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ที่ว่าการอำเภอท้ายเหมือง</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>นายอำเภอท้ายเหมือง ที่ว่าการอำเภอท้ายเหมือง</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ธนาคาร ซีไอเอ็มบี ไทย</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ผู้บริหารงานบุคคล ธนาคาร ซีไอเอ็มบี ไทย</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ธนาคาร ทหารไทย จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>หัวหน้าสรรหาและว่าจ้างบุคลากร ธนาคาร ทหารไทย จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ธนาคาร ทหารไทยธนชาต จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>หัวหน้าสรรหาและว่าจ้างบุคลากร ธนาคาร ทหารไทยธนชาต จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ธนาคารออมสินภาค 16</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ธนาคารออมสินภาค 16</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>หน่วยแผนและพัฒนางานสาขา</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20 ชั้น 2 ถนนราษฎร์อุทิศ ตำบลตลาด</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>อำเภอเมือง จังหวัดสุราษฎร์ธานี 84000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>นิติบุคคลอาคารชุด รัชพร เพลส</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ผู้จัดการอาคารนิติบุคคลอาคารชุด รัชพร เพลส</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>นิติบุคคลอาคารชุด รัชพร เพลส</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>94/113  ชั้น  1  หมู่  7 ถนนวิชิตสงคราม  ตำบลกะทู้</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>อำเภอกะทู้   จังหวัดภูเก็ต   83120</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>บริษัท  ชูช่วย เทรดดิ้ง กรุ๊ป จำกัด</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ผู้จัดการแผนกทรัพยากรบุคคล บริษัท ชูช่วย เทรดดิ้ง กรุ๊ป จำกัด</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">เลขที่ 30 หมู่ 1 ถนนวิชิตสงคราม ตำบลกะทู้ </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>อำเภอกะทู้ จังหวัดภูเก็ต 83120</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>บริษัท กรุงไทย-แอกซ่า ประกันชีวิต จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ประธานฝ่ายสรรหาบุคคลากร</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>บริษัท กรุงไทย-แอกซ่า ประกันชีวิต จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>บริษัท การบินไทย จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ผู้จัดการ การบริการสนามบินภูเก็ต บริษัท การบินไทย จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>บริษัท คาเธ่ย์แปซิฟิค แอร์เวย์ จำกัด</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>นายสถานี บริษัท คาเธ่ย์แปซิฟิค แอร์เวย์ จำกัด</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>บริษัท คิง เพาเวอร์ ดิวตี้ฟรี จำกัด</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายปฏิบัติการร้านค้าสาขาภูเก็ต-หาดใหญ่ บริษัท คิง เพาเวอร์ ดิวตี้ฟรี จำกัด</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>บริษัท คุณมะลิ จำกัด</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>เจ้าหน้าที่ฝ่ายทรัพยากรมนุษย์ บริษัท คุณมะลิ จำกัด</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>โรงแรมมารีน่า แกลลอรี่ รีสอร์ท-คชา-กะหลิม เบย์</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>เลขที่ 326/13 ถนนพระบารมี ตำบลป่าตอง</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>อำเภอกะทู้ จังหวัดภูเก็ต 83150</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>บริษัท จอย ฟูล คอนซัลธ์ทิง จำกัด</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>กรรมการผู้จัดการ บริษัท จอย ฟูล คอนซัลธ์ทิง จำกัด</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>เลขที่ 27/15 หมู่ 1 ตำบลราไวย์</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>อำเภอเมือง จังหวัดภูเก็ต 83130</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>บริษัท จีเอช ดับบลิว คอนซัลติ้ง จำกัด</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>กรรมการผู้จัดการ บริษัท จีเอช ดับบลิว คอนซัลติ้ง จำกัด</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>บริษัท ชลาลัยพิศาล จำกัด</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>กรรมการผู้จัดการ บริษัท ชลาลัยพิศาล จำกัด</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>บริษัท ชิว จื้อ ภูเก็ต จำกัด</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>กรรมการบริษัท บริษัท ชิว จื้อ ภูเก็ต จำกัด</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>เลขที่ 89/381 หมู่ 6 ตำบลวิชิต</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>อำเภอเมือง จังหวัดภูเก็ต 83000</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>บริษัท ซิมโฟนี่ คอมมูนิเคชั่น จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>หัวหน้าแผนกปฏิบัติการโครงข่าย ภาคใต้</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>บริษัท ซิมโฟนี่ คอมมูนิเคชั่น จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>บริษัท ซีไอเอ็มบี ไทย ออโต้ จำกัด</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>รองกรรมการผู้จัดการ ผู้บริหารสินเชื่อการตลาดภูมิภาค</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>บริษัท ซีไอเอ็มบี ไทย ออโต้ จำกัด</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>บริษัท ทริปเปิลที บรอดแบนด์ จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ผู้จัดการเขต ภูเก็ต บริษัท ทริปเปิลที บรอดแบนด์ จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>บริษัท ทิพย์รักษา จำกัด</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ผู้จัดการ บริษัท ทิพย์รักษา จำกัด</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>บริษัท ท้องทรายเบย์คอทเทจส์ แอนด์ โฮเต็ล จำกัด</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายทรัพยากรบุคคล บริษัท ท้องทรายเบย์คอทเทจส์ แอนด์ โฮเต็ล จำกัด</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>เลขที่ 84 หมู่ 5 ตำบลบ่อผุด</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">อำเภอเกาะสมุย จังหวัดสุราษฎร์ธานี 84320 </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>บริษัท นำแสง แอสเสท ดีเวลลอปเม้นท์ จำกัด</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>กรรมการผู้จัดการ บริษัท นำแสง แอสเสท ดีเวลลอปเม้นท์ จำกัด</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>15/166-167 หมู่ 1 ตำบลราไวย์</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>อำเภอเมืองภูเก็ต จังหวัดภูเก็ต 83130</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>บริษัท น้องเอ็มแลนด์สเคป จำกัด (สำนักงานใหญ่)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>กรรมการผู้จัดการ บริษัท น้องเอ็มแลนด์สเคป จำกัด (สำนักงานใหญ่)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>เลขที่ 89/4 หมู่ 7 ตำบลฉลอง</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>อำเภอเมือง จังหวัดภูเก็ต 83130</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>บริษัท บลูนาคราช จำกัด</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายทรัพยากรบุคคล บริษัท บลูนาคราช จำกัด</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>บริษัท บางกอก โพสต์ จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>บรรณาธิการหนังสือพิมพ์บางกอกโพสต์</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>บริษัท บางกอก โพสต์ จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>บริษัท ป่าตอง ไดน์ แอนด์ โชว์ จำกัด</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>กรรมการ บริษัท ป่าตอง ไดน์ แอนด์ โชว์ จำกัด</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>31 ถนนบางลา ตำบลป่าตอง</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>อำเภอกะทู้ จังหวัดภูเก็ต 83150</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">บริษัท ป่าตอง ไดน์ แอนด์ โชว์ จำกัด </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>กรรมการผู้จัดการ บริษัท ป่าตอง ไดน์ แอนด์ โชว์ จำกัด</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>31 ถนนบางลา ตำบลป่าตอง</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>อำเภอกะทู้ จังหวัดภูเก็ต 83150</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>บริษัท ผูเหลา เน็ตเวิร์ค จำกัด</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ผู้จัดการ บริษัท ผูเหลา เน็ตเวิร์ค จำกัด</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>บริษัท พรีเมี่ยม ฟู้ด (ประเทศไทย) จำกัด สาขาภูเก็ต</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายบริหารทรัพยากรมนุษย์ บริษัท พรีเมี่ยม ฟู้ด (ประเทศไทย) จำกัด สาขาภูเก็ต</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>55/8 หมู่ 5 ถนนวิชิตสงคราม ตำบลวิชิต</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>อำเภอเมือง จังหวัดภูเก็ต 83000</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>บริษัท พีเอซี ควอลิตี้ กรุ๊ป จำกัด</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>กรรมการผู้จัดการ บรษัท พีเอซี ควอลิตี้ กรุ๊ป จำกัด</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>เลขที่ 52/29 หมู่ 2 ตำบลวิชิต</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">อำเภอเมือง จังหวัดภูเก็ต 83000 </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>บริษัท ฟิลด์ อิมแพ็ค (ประเทศไทย) จำกัด</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ผู้จัดการ บริษัท ฟิลด์ อิมแพ็ค (ประเทศไทย) จำกัด</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>บริษัท มาซูม่า เซอร์วิส จำกัด</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายพัฒนาทรัพยากรมนุษย์  บริษัท มาซูม่า เซอร์วิส จำกัด</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>บริษัท มิราเคิลส์ ไทยแลนด์ จำกัด</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>กรรมการ บริษัท มิราเคิลส์ ไทยแลนด์ จำกัด</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">48/3  หมู่  1   ตำบลป่าคลอก </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>อำเภอถลาง  จังหวัดภูเก็ต   83110</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>บริษัท มี-ไอโซน จำกัด</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ผู้จัดการ บริษัท มี-ไอโซน จำกัด</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>661/26 ชั้นที่ 3 ถนนสาธุประดิษฐ์ แขวงบางโพงพาง</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>เขตยานนาวา กรุงเทพมหานคร 10120</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>บริษัท ม่วนใจ๋ จำกัด (โรงแรม บ้านกระทิงภูเก็ต)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายทรัพยากรบุคคล โรงแรม บ้านกระทิงภูเก็ต</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>บริษัท ม่วนใจ๋ จำกัด</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">เลขที่ 11/3 หมู่ 1 ตำบลราไวย์ </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>อำเภอเมือง จังหวัดภูเก็ต 83130</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>บริษัท ยูนิตี้ อินเตอร์ มาร์เก็ตติ้ง จำกัด</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ผู้อำนวยการ บริษัท ยูนิตี้ อินเตอร์ มาร์เก็ตติ้ง จำกัด</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>บริษัท รักษาความปลอดภัยศรีเทพเบสการ์ด จำกัด</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ผู้จัดการ บริษัท รักษาความปลอดภัยศรีเทพเบสการ์ด จำกัด</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>บริษัท วาย ยู แอล จำกัด (สำนักงานใหญ่)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>กรรมการผู้จัดการ บริษัท วาย ยู แอล จำกัด (สำนักงานใหญ่)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>เลขที่ 79/7 ถนนผังเมือง สาย ก ตำบลป่าตอง</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>อำเภอกะทู้ จังหวัดภูเก็ต 83150</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>บริษัท สยามสปอร์ตโปร โฮลดิ้งส์ จำกัด</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายทรัพยากรบุคคล บริษัท สยามสปอร์ตโปร โฮลดิ้งส์ จำกัด</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>เลขที่ 5/109 หมู่ 4 ตำบลเชิงทะเล</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>อำเภอถลาง จังหวัดภูเก็ต 83110</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>บริษัท สามพี โปรเฟชชันนัล จำกัด</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ผู้อำนวยการฝ่ายอาวุโส ฝ่ายบริหารทรัพยากรบุคคล</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>บริษัท สามพี โปรเฟชชันนัล จำกัด</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10/186 อาคารเดอะเทรนดี้ ชั้น 25 ซอยสุขุมวิท 13 ถนนสุขุมวิท</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>แขวงคลองเตยเหนือ เขตวัฒนา กรุงเทพมหานคร 10110</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>บริษัท สิงค์โปรแอร์ไลน์ส จำกัด</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ผู้จัดการ บริษัท สิงค์โปรแอร์ไลน์ส จำกัด</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>บริษัท ห้องกี่ประดับยนต์แอนด์ซาวด์ จำกัด</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>กรรมการผู้จัดการ บริษัท ห้องกี่ประดับยนต์แอนด์ซาวด์ จำกัด</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>บริษัท อคาเดมิค เอ็กซ์เซ้นจ์ คอร์ปอเรชั่น จำกัด</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ผู้ประสานงานโครงการ บริษัท อคาเดมิค เอ็กซ์เซ้นจ์ คอร์ปอเรชั่น จำกัด</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>บริษัท อีทีอี เมเนจเมนท์ จำกัด</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายบริหารจัดการบุคลากร บริษัท อีทีอี เมเนจเมนท์ จำกัด</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>บริษัท เจวี อีคอมเมิร์ท จำกัด</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ผู้จัดการโครงการ บริษัท เจวี อีคอมเมิร์ท จำกัด</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>บริษัท เทวาเอสเตท จำกัด (โรงแรม เซนมายา โอเชี่ยนฟร้อนท์ ภูเก็ต)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายทรัพยากรบุคคล บริษัท เทวาเอสเตท จำกัด (สำนักงานใหญ่)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>โรงแรม เซนมายา โอเชี่ยนฟร้อนท์ ภูเก็ต</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6/181 หมู่ 6 ตำบลกมลา</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>อำเภอกะทู้ จังหวัดภูเก็ต 83150</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>บริษัท เพสท์ การ์ด จำกัด</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายทรัพยากรบุคคล บริษัท เพสท์ การ์ด จำกัด</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>เลขที่ 56/402 หมู่ 2 ตำบลวิชิต</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>อำเภอเมือง จังหวัดภูเก็ต 83000</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>บริษัท เพสท์ การ์ด จำกัด</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายทรัพยากรบุคคล บริษัท เพสท์ การ์ด จำกัด</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>เลขที่ 56/402 ม.2 ตำบลวิชิต</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>อำเภอเมือง จังหวัดภูเก็ต 83000</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>บริษัท เพิร์ล ซี ทราเวล จำกัด</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ผู้มีอำนาจลงนาม บริษัท เพิร์ล ซี ทราเวล จำกัด</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>เลขที่ 9/1 ถนนเทพกระษัตรี ตำบลตลาดใหญ่</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>อำเภอเมือง จังหวัดภูเก็ต 83000</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>บริษัท เฟเลอร์ เดอ ลีส์ จำกัด</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>กรรมการผู้จัดการ บริษัท เฟเลอร์ เดอ ลีส์ จำกัด</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>เลขที่ 181/2 หมู่ 5 ตำบลเชิงทะเล</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>อำเภอถลาง จังหวัดภูเก็ต 83110</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>บริษัท เอดิโค่ อินเตอร์เนชั่นแนล จำกัด</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ผู้จัดการ บริษัท เอดิโค่ อินเตอร์เนชั่นแนล จำกัด</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>บริษัท เอมธรรม จำกัด</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายทรัพยากรบุคคล บริษัท เอมธรรม จำกัด</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>บริษัท เอส แอลพี เค คอร์ปอเรชั่น จำกัด</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>กรรมการผู้จัดการ บริษัท เอส แอลพี เค คอร์ปอเรชั่น จำกัด</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>บริษัท เอส แอลพี เค คอร์ปอเรชั่น จำกัด</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ผู้จัดการ บริษัท  เอส แอลพี เค คอร์ปอเรชั่น จำกัด</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>เลขที่ 4/4 หมู่ 3 ตำบลสาคู</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>อำเภอถลาง จังหวัดภูเก็ต 83110</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>บริษัท เอสที แอ็คเคาน์ติ้ง พลัส โซลูชั่นส์ จำกัด</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>กรรมการผู้จัดการ บริษัท เอสที แอ็คเคาน์ติ้ง พลัส โซลูชั่นส์ จำกัด</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>เลขที่ 19/102-104 หมู่ 8 ตำบลฉลอง</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>อำเภอเมืองภูเก็ต จังหวัดภูเก็ต 83130</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>บริษัท เอ็นทูเจ มาร์เก็ตติ้ง จำกัด (สำนักงานใหญ่)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายทรัพยากรบุคคล บริษัท เอ็นทูเจ มาร์เก็ตติ้ง จำกัด (สำนักงานใหญ่)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>บริษัท แคล-คอมพ์ อีเล็คโทรนิคส์ (ประเทศไทย) จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ผู้จัดการแผนกทรัพยากรมนุษย์</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>บริษัท แคล-คอมพ์ อีเล็คโทรนิคส์ (ประเทศไทย) จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>บริษัท แฟลช เอ็กซ์เพรส จำกัด</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายทรัพยากรมนุษย์ บริษัท แฟลช เอ็กซ์เพรส จำกัด</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>บริษัท แอคร์คอ โฮเทล ประเทศไทย จำกัด</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ผู้อำนวยการฝ่ายทรัพยากรบุคคล บริษัท แอคร์คอ โฮเทล ประเทศไทย จำกัด</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>บริษัท แอร์พอร์ตออกัส อินเตอร์เนชั่นแนล จำกัด</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายทรัพยากรบุคคล บริษัท แอร์พอร์ตออกัส อินเตอร์เนชั่นแนล จำกัด</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>บริษัท แอลเอส พาวิลเลี่ยน ดีเวลลอปเมนท์ จำกัด</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ผู้อำนวยการฝ่ายทรัพยากรบุคคล บริษัท แอลเอส พาวิลเลี่ยน ดีเวลลอปเมนท์ จำกัด</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>เลขที่ 31/1 หมู่ 6 ตำบลเชิงทะเล</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>อำเภอถลาง จังหวัดภูเก็ต 83110</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>บริษัท แอ๊ดวานซ์อินฟอร์เมชั่นเทคโนโลยี จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ผู้จัดการโครงการ บริษัท แอ๊ดวานซ์อินฟอร์เมชั่นเทคโนโลยี จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>บริษัท โฟร์ โฟร์ โฟร์ มีเดีย (เอเชีย) จำกัด</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>กรรมการผู้จัดการ บริษัท โฟร์ โฟร์ โฟร์ มีเดีย (เอเชีย) จำกัด</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>บริษัท โรงแรม ไร่เลย์ เบย์ รีสอร์ท แอนด์ สปา</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายทรัพยากรบุคคล บริษัท  โรงแรม ไร่เลย์ เบย์ รีสอร์ท แอนด์ สปา</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">เลขที่ 145 หมู่ 2 ตำบลอ่าวนาง </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">อำเภอเมือง จังหวัดกระบี่ 81180  </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>บริษัท ไทยเอวิเอชั่น กราวด์ เซอร์วิสเซส จำกัด</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>เจ้าหน้าที่ฝ่ายบุคคล บริษัท ไทยเอวิเอชั่น กราวด์ เซอร์วิสเซส จำกัด</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>บริษัท ไพร์ม พ้อย พร๊อพเพอร์ตี้ จำกัด</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ผู้จัดการแผนกทรัพยากรบุคคล บริษัท ไพร์ม พ้อย พร๊อพเพอร์ตี้ จำกัด</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>48/210 หมู่ 4 ตำบลเชิงทะเล</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>อำเภอถลาง จังหวัดภูเก็ต 83110</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>บริษัทบริหารสินทรัพย์ กรุงเทพพาณิชย์ จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ผู้อำนวยการฝ่ายทรัพยากรบุคคล</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>บริษัทบริหารสินทรัพย์ กรุงเทพพาณิชย์ จำกัด (มหาชน)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>มหาวิทยาลัยราชภัฏภูเก็ต</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>อธิการบดีมหาวิทยาลัยราชภัฏภูเก็ต</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>มหาวิทยาลัยสงขลานครินทร์ วิทยาเขตภูเก็ต</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>อธิการบดี</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>มหาวิทยาลัยสงขลานครินทร์ วิทยาเขตภูเก็ต</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>มหาวิทยาลัยสงขลานครินทร์ วิทยาเขตภูเก็ต</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>อธิการบดี มหาวิทยาลัยสงขลานครินทร์ วิทยาเขตภูเก็ต</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ร้านอิซากาย่ะ ซามูไร สาขาภูเก็ต</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>เจ้าของกิจการ ร้านอิซากาย่ะ ซามูไร สาขาภูเก็ต</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>เลขที่ 5 ถ.รัษฎา ตำบลตลาดใหญ่</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>อำเภอเมือง จังหวัดภูเก็ต 83000</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>วู้ด-ไมเซอร์ อิเมิจจิ้ง มาร์เก็ตส์ แอลแอลซี</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>กรรมการผู้จัดการ วู้ด-ไมเซอร์ อิเมิจจิ้ง มาร์เก็ตส์ แอลแอลซี</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>เลขที่ 5/31 อาคารฟิชเชอร์แมนเวย์ บิสิเนสการ์เดน หมู่ 5 ถนนวิเศษ</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>ตำบลราไวย์ อำเภอเมือง จังหวัดภูเก็ต 83000</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>สำนักงานขนส่งจังหวัดพังงา</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ขนส่งจังหวัดพังงา  สำนักงานขนส่งจังหวัดพังงา</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>สำนักงานขนส่งจังหวัดภูเก็ต</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>นายทะเบียนจังหวัดภูเก็ต สำนักงานขนส่งจังหวัดภูเก็ต</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>สำนักงานขนส่งจังหวัดภูเก็ต</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>นายทะเบียนจังหวัดภูเก็ต</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>สำนำกงานขนส่งจังหวัดภูเก็ต</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>สำนักงานขนส่งจังหวัดภูเก็ต</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>นายทะเบียนจังหวัดภูเก็ต สำนักงานขนส่งจังหวัดภูเก็ต</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>สำนักงานทรัพยากรธรรมชาติและสิ่งแวดล้อมจังหวัดภูเก็ต</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ผู้อำนวยการ สำนักงานทรัพยากรธรรมชาติและสิ่งแวดล้อมจังหวัดภูเก็ต</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>สำนักอำนวยการประจำศาลจังหวัดภูเก็ต</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ผู้อำนวยการสำนักอำนวยการประจำศาลจังหวัดภูเก็ต</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด จ.ปรีชาเจริญยนต์ (2003)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ผู้จัดการห้างหุ้นส่วนจำกัด จ.ปรีชาเจริญยนต์ (2003)</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด เจมส์ เอ็กซ์เซนจ์</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>หุ้นส่วนผู้จัดการ ห้างหุ้นส่วนจำกัด เจมส์ เอ็กซ์เซนจ์</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>เลขที่ 21 ถนนราชปาทานุสรณ์ ตำบลป่าตอง</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>อำเภอกะทู้ จังหวัดภูเก็ต 83150</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>อู่ศักดิ์การช่าง</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>เจ้าของอู่ศักดิ์การช่าง</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>แผนกช่าง สายการบิน เคแอลเอ็ม ประจำภูเก็ต</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ผู้จัดการแผนกช่าง สายการบิน เคแอลเอ็ม ประจำภูเก็ต</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>แผนกช่าง สายการบิน เคแอลเอ็ม รอยัลดัชท์ แอร์ไลน์</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ผู้จัดการแผนกช่าง สายการบิน เคแอลเอ็ม รอยัลดัชท์ แอร์ไลน์</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>โรงเรียนภาษามิสเตอร์ อิงลิช</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ผู้จัดการ โรงเรียนภาษามิสเตอร์ อิงลิช</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>โรงแรม ราไวย์ปาล์มบีช รีสอร์ท</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายทรัพยากรบุคคล โรงแรม ราไวย์ปาล์มบีช รีสอร์ท</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>เลขที่ 66/2 หมู่ 6 ตำบลราไวย์</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">อำเภอเมือง จังหวัดภูเก็ต 83130 </t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>โรงแรม เดอะทับแขก กระบี่ บูทีค รีสอร์ท</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายทรัพยากรบุคคล โรงแรม เดอะทับแขก กระบี่ บูทีค รีสอร์ท</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>123 หมู่ 3 ตำบลหนองทะเล</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>อำเภอเมือง จังหวัดกระบี่ 81180</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>โรงแรม ไดมอนด์ คอทเทจ รีสอร์ท แอนด์ สปา</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ผู้จัดการฝ่ายทรัพยากรบุคคล โรงแรม ไดมอนด์ คอทเทจ รีสอร์ท แอนด์ สปา</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>เลขที่ 6 ถนนกะรน ตำบลกะรน</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>อำเภอเมือง จังหวัดภูเก็ต 83100</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>โรงแรมอาม่า รีสอร์ท แอนด์ สปา</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>หัวหน้าฝ่ายทรัพยากรบุคคล โรงแรมอาม่า รีสอร์ท แอนด์ สปา</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>33 ซอยราษฎร์อุทิศ 200 ปี ตำบลป่าตอง</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>อำเภอกะทู้ จังหวัดภูเก็ต 83150</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/zong.xlsx
+++ b/zong.xlsx
@@ -1669,11 +1669,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>กรรมการผู้จัดการ บริษัท เอส แอลพี เค คอร์ปอเรชั่น จำกัด</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+          <t>ผู้จัดการ บริษัท  เอส แอลพี เค คอร์ปอเรชั่น จำกัด</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>เลขที่ 4/4 หมู่ 3 ตำบลสาคู</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>อำเภอถลาง จังหวัดภูเก็ต 83110</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
     </row>
@@ -1685,19 +1693,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ผู้จัดการ บริษัท  เอส แอลพี เค คอร์ปอเรชั่น จำกัด</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>เลขที่ 4/4 หมู่ 3 ตำบลสาคู</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>อำเภอถลาง จังหวัดภูเก็ต 83110</t>
-        </is>
-      </c>
+          <t>กรรมการผู้จัดการ บริษัท เอส แอลพี เค คอร์ปอเรชั่น จำกัด</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
     </row>
